--- a/data/Game/Material.xlsx
+++ b/data/Game/Material.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B288AA-2E68-46F8-A5F7-D146FFB24853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573E4455-6D46-4661-B573-B0574536CA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Material!$A$2:$H$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Material!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1300,6 +1300,9 @@
     <t>gỗ sồi</t>
   </si>
   <si>
+    <t>sắt</t>
+  </si>
+  <si>
     <t>bùn</t>
   </si>
   <si>
@@ -1411,12 +1414,18 @@
     <t>tuyết</t>
   </si>
   <si>
+    <t>vôi</t>
+  </si>
+  <si>
     <t>cẩm thạch</t>
   </si>
   <si>
     <t>bazan</t>
   </si>
   <si>
+    <t>phiến</t>
+  </si>
+  <si>
     <t>bùn lầy</t>
   </si>
   <si>
@@ -1498,6 +1507,9 @@
     <t>gỗ linh sam</t>
   </si>
   <si>
+    <t>gỗ dong</t>
+  </si>
+  <si>
     <t>đất sáng</t>
   </si>
   <si>
@@ -1682,18 +1694,6 @@
   </si>
   <si>
     <t>đáng yêu</t>
-  </si>
-  <si>
-    <t>vôi</t>
-  </si>
-  <si>
-    <t>phiến</t>
-  </si>
-  <si>
-    <t>sắt</t>
-  </si>
-  <si>
-    <t>gỗ dong</t>
   </si>
 </sst>
 </file>
@@ -2051,20 +2051,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2107,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2124,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -2133,7 +2132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2141,7 +2140,7 @@
         <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>425</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2150,7 +2149,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -2159,7 +2158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -2185,7 +2184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2193,7 +2192,7 @@
         <v>412</v>
       </c>
       <c r="C7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -2202,7 +2201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>412</v>
       </c>
       <c r="C8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -2219,7 +2218,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -2228,7 +2227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2236,7 +2235,7 @@
         <v>412</v>
       </c>
       <c r="C9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -2245,7 +2244,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2253,7 +2252,7 @@
         <v>412</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
@@ -2262,7 +2261,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -2279,7 +2278,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G11" t="s">
         <v>43</v>
@@ -2288,7 +2287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -2296,7 +2295,7 @@
         <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
         <v>46</v>
@@ -2305,7 +2304,7 @@
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="G12" t="s">
         <v>48</v>
@@ -2314,7 +2313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>412</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
         <v>51</v>
@@ -2331,7 +2330,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -2340,7 +2339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2364,7 @@
         <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D15" t="s">
         <v>59</v>
@@ -2374,7 +2373,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -2383,7 +2382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -2391,7 +2390,7 @@
         <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
@@ -2400,7 +2399,7 @@
         <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="G16" t="s">
         <v>66</v>
@@ -2409,7 +2408,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2417,7 +2416,7 @@
         <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
@@ -2426,7 +2425,7 @@
         <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -2435,7 +2434,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -2443,7 +2442,7 @@
         <v>412</v>
       </c>
       <c r="C18" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
@@ -2452,7 +2451,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -2461,7 +2460,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>80</v>
       </c>
       <c r="F19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G19" t="s">
         <v>81</v>
@@ -2487,7 +2486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -2513,7 +2512,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>414</v>
       </c>
       <c r="C21" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D21" t="s">
         <v>89</v>
@@ -2530,7 +2529,7 @@
         <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G21" t="s">
         <v>91</v>
@@ -2539,7 +2538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -2547,7 +2546,7 @@
         <v>415</v>
       </c>
       <c r="C22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D22" t="s">
         <v>94</v>
@@ -2556,7 +2555,7 @@
         <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="G22" t="s">
         <v>96</v>
@@ -2565,7 +2564,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>98</v>
       </c>
@@ -2573,7 +2572,7 @@
         <v>412</v>
       </c>
       <c r="C23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D23" t="s">
         <v>99</v>
@@ -2582,7 +2581,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G23" t="s">
         <v>101</v>
@@ -2591,7 +2590,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>412</v>
       </c>
       <c r="C24" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
         <v>104</v>
@@ -2608,7 +2607,7 @@
         <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G24" t="s">
         <v>106</v>
@@ -2617,7 +2616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
@@ -2634,7 +2633,7 @@
         <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G25" t="s">
         <v>111</v>
@@ -2643,7 +2642,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>412</v>
       </c>
       <c r="C26" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D26" t="s">
         <v>114</v>
@@ -2660,7 +2659,7 @@
         <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="G26" t="s">
         <v>116</v>
@@ -2669,7 +2668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>118</v>
       </c>
@@ -2677,7 +2676,7 @@
         <v>412</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -2686,7 +2685,7 @@
         <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="G27" t="s">
         <v>121</v>
@@ -2695,7 +2694,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -2703,7 +2702,7 @@
         <v>412</v>
       </c>
       <c r="C28" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D28" t="s">
         <v>124</v>
@@ -2712,7 +2711,7 @@
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G28" t="s">
         <v>126</v>
@@ -2721,7 +2720,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2729,7 +2728,7 @@
         <v>412</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D29" t="s">
         <v>129</v>
@@ -2738,7 +2737,7 @@
         <v>130</v>
       </c>
       <c r="F29" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G29" t="s">
         <v>131</v>
@@ -2747,7 +2746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>412</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D30" t="s">
         <v>134</v>
@@ -2764,7 +2763,7 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G30" t="s">
         <v>136</v>
@@ -2773,7 +2772,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2781,7 +2780,7 @@
         <v>412</v>
       </c>
       <c r="C31" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D31" t="s">
         <v>139</v>
@@ -2790,7 +2789,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G32" t="s">
         <v>144</v>
@@ -2816,7 +2815,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>412</v>
       </c>
       <c r="C33" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
         <v>147</v>
@@ -2833,7 +2832,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -2841,7 +2840,7 @@
         <v>412</v>
       </c>
       <c r="C34" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D34" t="s">
         <v>150</v>
@@ -2850,7 +2849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>412</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
         <v>153</v>
@@ -2867,7 +2866,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>155</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>158</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>412</v>
       </c>
       <c r="C37" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D37" t="s">
         <v>159</v>
@@ -2901,7 +2900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>164</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>167</v>
       </c>
@@ -2943,7 +2942,7 @@
         <v>412</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D40" t="s">
         <v>168</v>
@@ -2952,7 +2951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>412</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>171</v>
@@ -2969,7 +2968,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>412</v>
       </c>
       <c r="C42" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D42" t="s">
         <v>174</v>
@@ -2986,7 +2985,7 @@
         <v>175</v>
       </c>
       <c r="F42" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="G42" t="s">
         <v>176</v>
@@ -2995,7 +2994,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -3003,7 +3002,7 @@
         <v>412</v>
       </c>
       <c r="C43" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D43" t="s">
         <v>179</v>
@@ -3012,7 +3011,7 @@
         <v>180</v>
       </c>
       <c r="F43" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G43" t="s">
         <v>181</v>
@@ -3021,7 +3020,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>183</v>
       </c>
@@ -3029,7 +3028,7 @@
         <v>413</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D44" t="s">
         <v>184</v>
@@ -3038,7 +3037,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>412</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D45" t="s">
         <v>187</v>
@@ -3055,7 +3054,7 @@
         <v>188</v>
       </c>
       <c r="F45" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G45" t="s">
         <v>189</v>
@@ -3064,7 +3063,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>191</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>193</v>
       </c>
       <c r="F46" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G46" t="s">
         <v>194</v>
@@ -3090,7 +3089,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>196</v>
       </c>
@@ -3098,7 +3097,7 @@
         <v>413</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D47" t="s">
         <v>197</v>
@@ -3107,7 +3106,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -3115,7 +3114,7 @@
         <v>412</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D48" t="s">
         <v>200</v>
@@ -3124,7 +3123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>412</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
         <v>203</v>
@@ -3141,7 +3140,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>205</v>
       </c>
@@ -3149,7 +3148,7 @@
         <v>412</v>
       </c>
       <c r="C50" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D50" t="s">
         <v>206</v>
@@ -3158,7 +3157,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>208</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>412</v>
       </c>
       <c r="C51" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D51" t="s">
         <v>209</v>
@@ -3175,7 +3174,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>211</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>412</v>
       </c>
       <c r="C52" t="s">
-        <v>553</v>
+        <v>463</v>
       </c>
       <c r="D52" t="s">
         <v>212</v>
@@ -3192,7 +3191,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>413</v>
       </c>
       <c r="C53" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D53" t="s">
         <v>215</v>
@@ -3209,7 +3208,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>217</v>
       </c>
@@ -3217,7 +3216,7 @@
         <v>412</v>
       </c>
       <c r="C54" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D54" t="s">
         <v>218</v>
@@ -3226,7 +3225,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>412</v>
       </c>
       <c r="C55" t="s">
-        <v>554</v>
+        <v>466</v>
       </c>
       <c r="D55" t="s">
         <v>221</v>
@@ -3243,7 +3242,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>223</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>412</v>
       </c>
       <c r="C56" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D56" t="s">
         <v>224</v>
@@ -3260,7 +3259,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>226</v>
       </c>
@@ -3277,7 +3276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>229</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>413</v>
       </c>
       <c r="C58" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D58" t="s">
         <v>230</v>
@@ -3294,7 +3293,7 @@
         <v>231</v>
       </c>
       <c r="F58" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G58" t="s">
         <v>232</v>
@@ -3303,7 +3302,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>234</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>237</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>412</v>
       </c>
       <c r="C60" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
         <v>238</v>
@@ -3337,7 +3336,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -3345,7 +3344,7 @@
         <v>412</v>
       </c>
       <c r="C61" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
         <v>241</v>
@@ -3354,7 +3353,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>243</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>413</v>
       </c>
       <c r="C62" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D62" t="s">
         <v>244</v>
@@ -3371,7 +3370,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>246</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>413</v>
       </c>
       <c r="C63" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
         <v>247</v>
@@ -3388,7 +3387,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>249</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>412</v>
       </c>
       <c r="C64" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
         <v>250</v>
@@ -3405,7 +3404,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>252</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>412</v>
       </c>
       <c r="C65" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D65" t="s">
         <v>253</v>
@@ -3422,7 +3421,7 @@
         <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="G65" t="s">
         <v>255</v>
@@ -3431,7 +3430,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>413</v>
       </c>
       <c r="C66" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
         <v>258</v>
@@ -3448,7 +3447,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>260</v>
       </c>
@@ -3456,7 +3455,7 @@
         <v>412</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
         <v>261</v>
@@ -3465,7 +3464,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>263</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>412</v>
       </c>
       <c r="C68" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D68" t="s">
         <v>264</v>
@@ -3482,7 +3481,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>266</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>412</v>
       </c>
       <c r="C69" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D69" t="s">
         <v>267</v>
@@ -3499,7 +3498,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>269</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>412</v>
       </c>
       <c r="C70" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D70" t="s">
         <v>270</v>
@@ -3516,7 +3515,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>272</v>
       </c>
@@ -3533,7 +3532,7 @@
         <v>274</v>
       </c>
       <c r="F71" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G71" t="s">
         <v>275</v>
@@ -3542,7 +3541,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>277</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>279</v>
       </c>
       <c r="F72" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G72" t="s">
         <v>280</v>
@@ -3568,7 +3567,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>282</v>
       </c>
@@ -3576,7 +3575,7 @@
         <v>413</v>
       </c>
       <c r="C73" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
         <v>283</v>
@@ -3585,7 +3584,7 @@
         <v>284</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G73" t="s">
         <v>285</v>
@@ -3594,7 +3593,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>287</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D74" t="s">
         <v>288</v>
@@ -3611,7 +3610,7 @@
         <v>289</v>
       </c>
       <c r="F74" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G74" t="s">
         <v>290</v>
@@ -3620,7 +3619,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>292</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>412</v>
       </c>
       <c r="C75" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D75" t="s">
         <v>293</v>
@@ -3637,7 +3636,7 @@
         <v>294</v>
       </c>
       <c r="F75" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G75" t="s">
         <v>295</v>
@@ -3646,7 +3645,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>297</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>413</v>
       </c>
       <c r="C76" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D76" t="s">
         <v>298</v>
@@ -3663,7 +3662,7 @@
         <v>299</v>
       </c>
       <c r="F76" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G76" t="s">
         <v>300</v>
@@ -3672,7 +3671,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="D77" t="s">
         <v>303</v>
@@ -3689,7 +3688,7 @@
         <v>304</v>
       </c>
       <c r="F77" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G77" t="s">
         <v>305</v>
@@ -3698,7 +3697,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>307</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>412</v>
       </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D78" t="s">
         <v>308</v>
@@ -3715,7 +3714,7 @@
         <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="G78" t="s">
         <v>310</v>
@@ -3724,7 +3723,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>312</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>412</v>
       </c>
       <c r="C79" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="D79" t="s">
         <v>313</v>
@@ -3741,7 +3740,7 @@
         <v>314</v>
       </c>
       <c r="F79" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="G79" t="s">
         <v>315</v>
@@ -3750,7 +3749,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>317</v>
       </c>
@@ -3758,7 +3757,7 @@
         <v>412</v>
       </c>
       <c r="C80" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D80" t="s">
         <v>318</v>
@@ -3767,7 +3766,7 @@
         <v>319</v>
       </c>
       <c r="F80" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G80" t="s">
         <v>320</v>
@@ -3776,7 +3775,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>322</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>412</v>
       </c>
       <c r="C81" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D81" t="s">
         <v>323</v>
@@ -3793,7 +3792,7 @@
         <v>324</v>
       </c>
       <c r="F81" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G81" t="s">
         <v>325</v>
@@ -3802,7 +3801,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>327</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>412</v>
       </c>
       <c r="C82" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="D82" t="s">
         <v>328</v>
@@ -3819,7 +3818,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>330</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>413</v>
       </c>
       <c r="C83" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D83" t="s">
         <v>331</v>
@@ -3836,7 +3835,7 @@
         <v>332</v>
       </c>
       <c r="F83" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G83" t="s">
         <v>333</v>
@@ -3845,7 +3844,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>335</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>413</v>
       </c>
       <c r="C84" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
         <v>336</v>
@@ -3862,7 +3861,7 @@
         <v>337</v>
       </c>
       <c r="F84" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="G84" t="s">
         <v>338</v>
@@ -3871,7 +3870,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>340</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>412</v>
       </c>
       <c r="C85" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D85" t="s">
         <v>341</v>
@@ -3888,7 +3887,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>343</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>412</v>
       </c>
       <c r="C86" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D86" t="s">
         <v>344</v>
@@ -3905,7 +3904,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>346</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>413</v>
       </c>
       <c r="C87" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="D87" t="s">
         <v>347</v>
@@ -3922,7 +3921,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>349</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>416</v>
       </c>
       <c r="C88" t="s">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="D88" t="s">
         <v>350</v>
@@ -3939,7 +3938,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>352</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>412</v>
       </c>
       <c r="C89" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D89" t="s">
         <v>353</v>
@@ -3956,7 +3955,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>355</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>412</v>
       </c>
       <c r="C90" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D90" t="s">
         <v>356</v>
@@ -3973,7 +3972,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>358</v>
       </c>
@@ -3981,7 +3980,7 @@
         <v>412</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D91" t="s">
         <v>359</v>
@@ -3990,7 +3989,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>416</v>
       </c>
       <c r="C92" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s">
         <v>362</v>
@@ -4007,7 +4006,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>364</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>413</v>
       </c>
       <c r="C93" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D93" t="s">
         <v>365</v>
@@ -4024,7 +4023,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>367</v>
       </c>
@@ -4032,7 +4031,7 @@
         <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D94" t="s">
         <v>368</v>
@@ -4041,7 +4040,7 @@
         <v>369</v>
       </c>
       <c r="F94" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G94" t="s">
         <v>370</v>
@@ -4050,7 +4049,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>372</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D95" t="s">
         <v>373</v>
@@ -4067,7 +4066,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>375</v>
       </c>
@@ -4075,7 +4074,7 @@
         <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D96" t="s">
         <v>376</v>
@@ -4084,7 +4083,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>378</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>413</v>
       </c>
       <c r="C97" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D97" t="s">
         <v>379</v>
@@ -4101,7 +4100,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>381</v>
       </c>
@@ -4109,7 +4108,7 @@
         <v>413</v>
       </c>
       <c r="C98" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D98" t="s">
         <v>382</v>
@@ -4118,7 +4117,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>384</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>413</v>
       </c>
       <c r="C99" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D99" t="s">
         <v>385</v>
@@ -4135,7 +4134,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -4143,7 +4142,7 @@
         <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D100" t="s">
         <v>388</v>
@@ -4152,7 +4151,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>390</v>
       </c>
@@ -4160,7 +4159,7 @@
         <v>418</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
         <v>391</v>
@@ -4169,7 +4168,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>393</v>
       </c>
@@ -4177,7 +4176,7 @@
         <v>419</v>
       </c>
       <c r="C102" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D102" t="s">
         <v>394</v>
@@ -4186,7 +4185,7 @@
         <v>395</v>
       </c>
       <c r="F102" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="G102" t="s">
         <v>396</v>
@@ -4195,7 +4194,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>398</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>420</v>
       </c>
       <c r="C103" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D103" t="s">
         <v>399</v>
@@ -4212,7 +4211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>401</v>
       </c>
@@ -4220,7 +4219,7 @@
         <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D104" t="s">
         <v>402</v>
@@ -4229,7 +4228,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D105" t="s">
         <v>405</v>
@@ -4246,7 +4245,7 @@
         <v>406</v>
       </c>
       <c r="F105" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="G105" t="s">
         <v>407</v>
@@ -4255,7 +4254,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D106" t="s">
         <v>410</v>
@@ -4273,13 +4272,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H106" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="palulu"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Material.xlsx
+++ b/data/Game/Material.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">dark matter</t>
